--- a/medicine/Premiers secours et secourisme/Société_française_de_médecine_d'urgence/Société_française_de_médecine_d'urgence.xlsx
+++ b/medicine/Premiers secours et secourisme/Société_française_de_médecine_d'urgence/Société_française_de_médecine_d'urgence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_m%C3%A9decine_d%27urgence</t>
+          <t>Société_française_de_médecine_d'urgence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société française de médecine d'urgence (SFMU), est une société savante française, association loi de 1901, créée en 2006 et rassemblant les acteurs de la médecine d'urgence.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_m%C3%A9decine_d%27urgence</t>
+          <t>Société_française_de_médecine_d'urgence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1984 - Création à Grenoble d'une association de médecins ayant choisi l’exercice exclusif de la médecine d'urgence.
 1985 - Création de la Société française d'urgence médicale (3 mars), statuts déposés à la préfecture de l'Isère et déclaration sous le numéro 14 160 (Journal officiel de la République française du 20 mars 1985, page 991).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_m%C3%A9decine_d%27urgence</t>
+          <t>Société_française_de_médecine_d'urgence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Buts et activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La SFMU a pour buts :
 Le rassemblement de tous les acteurs francophones en soins et médecine d’urgence ;
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_m%C3%A9decine_d%27urgence</t>
+          <t>Société_française_de_médecine_d'urgence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Journal de la SFMU</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Annales françaises de médecine d’urgence (AFMU, Lavoisier éditeur. Cachan, France) sont depuis 2011 la voix scientifique francophone de la médecine d'urgence.
 Le Journal européen des urgences et de réanimation (JEUR), précédemment Journal Européen des Urgences, a été le premier journal servant l’organe de l’expression scientifique de la SFMU jusqu’en 2009.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_m%C3%A9decine_d%27urgence</t>
+          <t>Société_française_de_médecine_d'urgence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Livres sous l'égide de la SFMU</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Elle a soutenu la publication de plusieurs livres portant sur la médecine d’urgence :
 Pierre Huasfater, Méningites et syndromes méningés, Coll. Références en médecine d'urgence. Collection de la SFMU, 2016 — 126 p.
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_m%C3%A9decine_d%27urgence</t>
+          <t>Société_française_de_médecine_d'urgence</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Congrès de la SFMU</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le congrès est organisé fin mai, début juin au palais des congrès de Paris. Il rassemble près de 4 000 professionnels sur trois jours. Il s’agit de la plus importante manifestation scientifique européennes dédiée à la médecine d'urgence. Ces journées de formation et de débat permettent aussi à l’industrie pharmaceutique et de matériels médicaux de rencontrer les urgentistes.
 </t>
@@ -663,7 +685,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_m%C3%A9decine_d%27urgence</t>
+          <t>Société_française_de_médecine_d'urgence</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -681,7 +703,9 @@
           <t>Journées Thématiques Interactives</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les JTI se déroulent chaque année début octobre dans une ville universitaire différente en France. Le principe d’interactivité des JTI fait que chaque inscrit doit choisir un atelier. Cet atelier représente une partie précise du thème traité par le congrès. Il est majeur que chaque congressiste puisse prendre connaissance de l’ensemble des travaux sur le thème. La restitution est le moment où chaque rapporteur d’atelier exposé à tous les inscrits les résumé du travail du groupe. De plus, lors de la restitution l’ensemble des congressistes peuvent poser des questions aux experts des ateliers auxquels ils n’ont pas participé. L'ensemble de ces travaux est ensuite intégré à un ouvrage référent publié au printemps suivant. 
 </t>
@@ -694,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_m%C3%A9decine_d%27urgence</t>
+          <t>Société_française_de_médecine_d'urgence</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -712,7 +736,9 @@
           <t>Fonds de développement pour la recherche en médecine d'urgence</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société française de médecine d'urgence (SFMU) crée un fonds de développement et de recherche en médecine d’urgence, a annoncé sa présidente, Agnès Ricard-Hibon, lors de la conférence de presse d'ouverture du congrès Urgences 2018. Indépendant de la SFMU, mais en lien avec son conseil d’administration, son objectif est de soutenir la recherche médicale et soignante en médecine d’urgence, ainsi que l’amélioration des conditions d’accueil des usagers et de travail des professionnels.
 </t>
